--- a/biology/Histoire de la zoologie et de la botanique/Claude_Victor_de_Boissieu/Claude_Victor_de_Boissieu.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Victor_de_Boissieu/Claude_Victor_de_Boissieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude-Victor de Boissieu du Tiret, né le 28 novembre 1784 à Ambérieu-en-Bugey et mort dans la même ville le 23 novembre 1868, est un peintre, dessinateur, graveur, botaniste et homme politique français du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Jean-Baptiste de Boissieu du Tiret, officier d'infanterie, et de Marie-Françoise de Valous, Claude-Victor de Boissieu a été l'élève de son oncle, le grand graveur lyonnais Jean-Jacques de Boissieu (1736-1810). Après des fonctions à la Cour sous la Restauration en tant que contrôleur des Postes, il exerce des fonctions politiques locales : il est maire d'Ambérieu-en-Bugey (commune où se trouve son château du Tiret), juge de paix, conseiller général de l'Ain pour le canton d'Ambérieu-en-Bugey (1842-1845, 1852-1861 et 1867-1868).
 Se consacrant à des travaux botaniques, il est admis à la Société d'agriculture de Lyon en 1810.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flore d'Europe (grand travail publié entre 1804 et 1823 chez Bruyset, Lyon);
 Seconde tournée pittoresque dans une partie du Bugey, de la Savoye et de la Suisse en juillet-août 1811;
